--- a/test/Stock Data.xlsx
+++ b/test/Stock Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\source\repos\EdGarrity\GenerateTestData\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egarrity\source\repos\EdGarrity\GenerateTestData\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3D6421-434F-47D6-81B4-CC9488A9B7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA8D07-72E2-4BBB-9209-1FCDE457FC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{449D6D31-8B56-478B-87C1-C3D819953126}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{449D6D31-8B56-478B-87C1-C3D819953126}"/>
   </bookViews>
   <sheets>
     <sheet name="FXAIX" sheetId="3" r:id="rId1"/>
@@ -111,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -152,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,7 +171,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -183,13 +186,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -202,6 +199,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,7 +223,7 @@
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{BCEFE983-BEA6-42E9-BA2E-106D73C33040}" name="Stock"/>
-    <tableColumn id="2" xr3:uid="{E3EA7BF9-AB4B-410E-B810-99947046C5A8}" name="Date" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E3EA7BF9-AB4B-410E-B810-99947046C5A8}" name="Date" dataDxfId="14" totalsRowDxfId="13"/>
     <tableColumn id="3" xr3:uid="{CC28BB5F-D6BA-4F88-A530-71D6E0218DBE}" name="Open"/>
     <tableColumn id="4" xr3:uid="{568292D7-0C59-48F1-9D36-3CB115325DC6}" name="High"/>
     <tableColumn id="5" xr3:uid="{3AABF0B5-B4E6-47D7-9AC9-0FDF928A8212}" name="Low"/>
@@ -247,14 +247,14 @@
     <tableColumn id="15" xr3:uid="{45BEBA76-3463-4E9B-9CF5-9D7EAAE92441}" name="Norm_Adj_Low"/>
     <tableColumn id="16" xr3:uid="{76307AB3-0311-424A-96ED-B2C2C17800F5}" name="Norm_Adj_Open"/>
     <tableColumn id="17" xr3:uid="{55AB2C63-B3ED-4B7F-82A9-A4709049B755}" name="Norm_Adj_Volume"/>
-    <tableColumn id="18" xr3:uid="{F9F72528-12A0-4B3B-A3DF-3E2D8CE1AB80}" name="N1_Open" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{F9F72528-12A0-4B3B-A3DF-3E2D8CE1AB80}" name="N1_Open" totalsRowFunction="custom" dataDxfId="12">
       <calculatedColumnFormula>(Table14[[#This Row],[Adj_Open]]-Table14[[#Totals],[Adj_Open]])/(I255-Table14[[#Totals],[Adj_Open]])</calculatedColumnFormula>
       <totalsRowFormula>MIN(Table14[[#Totals],[Adj Close]:[Adj_Low]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{436C67FE-FF45-4581-812C-3410CF6CC7EB}" name="N2_Open" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{436C67FE-FF45-4581-812C-3410CF6CC7EB}" name="N2_Open" dataDxfId="11">
       <calculatedColumnFormula>(Table14[[#This Row],[Adj_Open]]-Table14[[#Totals],[N1_Open]])/(R255-Table14[[#Totals],[N1_Open]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{27137C16-BF53-44A3-B246-C73CE3724592}" name="N3_Open" dataDxfId="1">
+    <tableColumn id="22" xr3:uid="{27137C16-BF53-44A3-B246-C73CE3724592}" name="N3_Open" dataDxfId="10">
       <calculatedColumnFormula>(Table14[[#This Row],[Adj_Open]]-Table14[[#Totals],[Adj_Low]])/(J255-Table14[[#Totals],[Adj_Low]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -267,7 +267,7 @@
   <autoFilter ref="A1:T253" xr:uid="{97FCF94E-575D-4856-9C72-1A68110295AC}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{953CF2C4-FEC0-4E3B-8D26-383B6AD55F82}" name="Stock"/>
-    <tableColumn id="2" xr3:uid="{C87588CF-9C5B-4028-822F-0EB00798FB46}" name="Date" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C87588CF-9C5B-4028-822F-0EB00798FB46}" name="Date" dataDxfId="9" totalsRowDxfId="0"/>
     <tableColumn id="3" xr3:uid="{D818CC80-44CB-4E9C-9907-086AF1A40BDE}" name="Open"/>
     <tableColumn id="4" xr3:uid="{33485A18-3A7B-40C6-83AD-F8875962193B}" name="High"/>
     <tableColumn id="5" xr3:uid="{E67274CE-1D1C-4CF1-9FBD-6BEB73B5EF7A}" name="Low"/>
@@ -291,14 +291,14 @@
     <tableColumn id="15" xr3:uid="{41444483-A3EA-424F-8EB6-43B61E7CBEB7}" name="Norm_Adj_Low"/>
     <tableColumn id="16" xr3:uid="{2214E840-710D-42A8-B299-AF0DA3E6FE84}" name="Norm_Adj_Open"/>
     <tableColumn id="17" xr3:uid="{2FCF243B-93C9-4ABD-A249-517D56693F3D}" name="Norm_Adj_Volume"/>
-    <tableColumn id="18" xr3:uid="{650D43BD-FD43-4227-A345-4147A8749805}" name="N1_Open" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{650D43BD-FD43-4227-A345-4147A8749805}" name="N1_Open" totalsRowFunction="custom" dataDxfId="8">
       <calculatedColumnFormula>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Open]])/(I256-Table13[[#Totals],[Adj_Open]])</calculatedColumnFormula>
       <totalsRowFormula>MIN(Table13[[#Totals],[Adj Close]:[Adj_Low]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1ACA0A82-BF10-4F75-A479-BCAA17FDB462}" name="N2_Open" dataDxfId="6">
+    <tableColumn id="19" xr3:uid="{1ACA0A82-BF10-4F75-A479-BCAA17FDB462}" name="N2_Open" dataDxfId="7">
       <calculatedColumnFormula>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[N1_Open]])/(R256-Table13[[#Totals],[N1_Open]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{CDEC2BBE-7BEF-4339-ADFE-8B4A7C4BC6F3}" name="N3_Open" dataDxfId="5">
+    <tableColumn id="22" xr3:uid="{CDEC2BBE-7BEF-4339-ADFE-8B4A7C4BC6F3}" name="N3_Open" dataDxfId="6">
       <calculatedColumnFormula>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J256-Table13[[#Totals],[Adj_Low]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -314,7 +314,7 @@
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{3F3CE258-4096-4C01-A763-CD81D57A1A59}" name="Stock"/>
-    <tableColumn id="2" xr3:uid="{992B076C-B23E-4DD7-93EE-469DC1C2D110}" name="Date" dataDxfId="10" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{992B076C-B23E-4DD7-93EE-469DC1C2D110}" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="3" xr3:uid="{DB9CF080-C2CF-48BB-B3C6-4A56DF805D54}" name="Open"/>
     <tableColumn id="4" xr3:uid="{87B64DB4-A453-473A-B672-B873D21A8673}" name="High"/>
     <tableColumn id="5" xr3:uid="{E8A65586-8DB1-4F4E-ADEB-41383E9ADB20}" name="Low"/>
@@ -338,14 +338,14 @@
     <tableColumn id="15" xr3:uid="{350F1AA7-B0E5-4763-BC13-10F957D8E12C}" name="Norm_Adj_Low"/>
     <tableColumn id="16" xr3:uid="{D0B3100B-D014-43B8-A7F6-56A5D9975C0E}" name="Norm_Adj_Open"/>
     <tableColumn id="17" xr3:uid="{126996CF-9BF9-40D2-B7D9-AAAAE3E6C74D}" name="Norm_Adj_Volume"/>
-    <tableColumn id="18" xr3:uid="{328C3C4F-8EF4-4CA3-945C-0DE61A70220E}" name="N1_Open" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{328C3C4F-8EF4-4CA3-945C-0DE61A70220E}" name="N1_Open" totalsRowFunction="custom" dataDxfId="3">
       <calculatedColumnFormula>(Table1[[#This Row],[Adj_Open]]-Table1[[#Totals],[Adj_Open]])/(I507-Table1[[#Totals],[Adj_Open]])</calculatedColumnFormula>
       <totalsRowFormula>MIN(Table1[[#Totals],[Adj Close]:[Adj_Low]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{B13DD476-5B45-4681-B74E-1A8F68D0EA39}" name="N2_Open" dataDxfId="12">
+    <tableColumn id="19" xr3:uid="{B13DD476-5B45-4681-B74E-1A8F68D0EA39}" name="N2_Open" dataDxfId="2">
       <calculatedColumnFormula>(Table1[[#This Row],[Adj_Open]]-Table1[[#Totals],[N1_Open]])/(R507-Table1[[#Totals],[N1_Open]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{843AA7E7-0208-4F5D-A940-EAC15DF2C0F3}" name="N3_Open" dataDxfId="11">
+    <tableColumn id="22" xr3:uid="{843AA7E7-0208-4F5D-A940-EAC15DF2C0F3}" name="N3_Open" dataDxfId="1">
       <calculatedColumnFormula>(Table1[[#This Row],[Adj_Open]]-Table1[[#Totals],[Adj_Low]])/(J507-Table1[[#Totals],[Adj_Low]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -642,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17172,8 +17172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA33E3E-6DDD-47EA-B895-3BDC83166D6A}">
   <dimension ref="A1:T255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="J255" sqref="J255"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17315,8 +17315,8 @@
         <v>-0.39005033879263507</v>
       </c>
       <c r="T2">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J256-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.39005033879263507</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.23966517955608896</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -17380,8 +17380,8 @@
         <v>-0.39432028445417217</v>
       </c>
       <c r="T3">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J258-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.39432028445417217</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.24228883397165679</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -17445,8 +17445,8 @@
         <v>-0.37855422240236614</v>
       </c>
       <c r="T4">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J260-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.37855422240236614</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.232601427714724</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -17510,8 +17510,8 @@
         <v>-0.40694265829238524</v>
       </c>
       <c r="T5">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J262-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.40694265829238524</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.25004461108935772</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -17575,8 +17575,8 @@
         <v>-0.39436736120292121</v>
       </c>
       <c r="T6">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J264-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.39436736120292121</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.24231776012892353</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -17640,8 +17640,8 @@
         <v>-0.44166573669808967</v>
       </c>
       <c r="T7">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J266-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.44166573669808967</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.27138009523892426</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -17705,8 +17705,8 @@
         <v>-0.45743185148152149</v>
       </c>
       <c r="T8">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J268-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.45743185148152149</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.28106753389663536</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -17770,8 +17770,8 @@
         <v>-0.46231191208145989</v>
       </c>
       <c r="T9">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J270-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.46231191208145989</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.2840660714791155</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -17835,8 +17835,8 @@
         <v>-0.48605541287856963</v>
       </c>
       <c r="T10">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J272-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.48605541287856963</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.29865518938488078</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -17900,8 +17900,8 @@
         <v>-0.46329732754459452</v>
       </c>
       <c r="T11">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J274-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.46329732754459452</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.28467155684964629</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -17965,8 +17965,8 @@
         <v>-0.47146192019753169</v>
       </c>
       <c r="T12">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J276-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.47146192019753169</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.28968826461671426</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -18030,8 +18030,8 @@
         <v>-0.48403715004191344</v>
       </c>
       <c r="T13">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J278-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.48403715004191344</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.29741507425862335</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -18095,8 +18095,8 @@
         <v>-0.48835437173253304</v>
       </c>
       <c r="T14">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J280-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.48835437173253304</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30006777727861961</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -18160,8 +18160,8 @@
         <v>-0.4948763905678556</v>
       </c>
       <c r="T15">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J282-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.4948763905678556</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30407521083213018</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -18225,8 +18225,8 @@
         <v>-0.49177971826078909</v>
       </c>
       <c r="T16">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J284-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.49177971826078909</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30217247046585655</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -18290,8 +18290,8 @@
         <v>-0.50271279061412755</v>
       </c>
       <c r="T17">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J286-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.50271279061412755</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.3088902617047346</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -18355,8 +18355,8 @@
         <v>-0.45489796837106405</v>
       </c>
       <c r="T18">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J288-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.45489796837106405</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.27951059754703056</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -18420,8 +18420,8 @@
         <v>-0.46681665404217015</v>
       </c>
       <c r="T19">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J290-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.46681665404217015</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.28683399572758395</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -18485,8 +18485,8 @@
         <v>-0.52242048860151979</v>
       </c>
       <c r="T20">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J292-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.52242048860151979</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.32099959351920221</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -18550,8 +18550,8 @@
         <v>-0.50407368044079026</v>
       </c>
       <c r="T21">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J294-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.50407368044079026</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30972645609357363</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -18615,8 +18615,8 @@
         <v>-0.50590335484951243</v>
       </c>
       <c r="T22">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J296-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.50590335484951243</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.31085069366519819</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -18680,8 +18680,8 @@
         <v>-0.42787019255054942</v>
       </c>
       <c r="T23">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J298-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.42787019255054942</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.262903467387687</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -18745,8 +18745,8 @@
         <v>-0.47953284742263991</v>
       </c>
       <c r="T24">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J300-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.47953284742263991</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.29464741996209148</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -18810,8 +18810,8 @@
         <v>-0.51805674781095967</v>
       </c>
       <c r="T25">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J302-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.51805674781095967</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.31831830698746094</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -18875,8 +18875,8 @@
         <v>-0.51359897157802203</v>
       </c>
       <c r="T26">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J304-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.51359897157802203</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.31557924067977633</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -18940,8 +18940,8 @@
         <v>-0.51625061204142308</v>
       </c>
       <c r="T27">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J306-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.51625061204142308</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.31720853265718196</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -19005,8 +19005,8 @@
         <v>-0.47772927187286435</v>
       </c>
       <c r="T28">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J308-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.47772927187286435</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.29353921875063266</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -19070,8 +19070,8 @@
         <v>-0.52203550604647264</v>
       </c>
       <c r="T29">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J310-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.52203550604647264</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.32076304222311325</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -19135,8 +19135,8 @@
         <v>-0.51201716535766595</v>
       </c>
       <c r="T30">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J312-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.51201716535766595</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.3146073049214379</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -19200,8 +19200,8 @@
         <v>-0.5248108227923467</v>
       </c>
       <c r="T31">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J314-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.5248108227923467</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.32246832669558373</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -19265,8 +19265,8 @@
         <v>-0.52739739725506696</v>
       </c>
       <c r="T32">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J316-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.52739739725506696</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.32405763907757507</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -19330,8 +19330,8 @@
         <v>-0.48327933172867565</v>
       </c>
       <c r="T33">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J318-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.48327933172867565</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.29694943522681216</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -19395,8 +19395,8 @@
         <v>-0.50510319477045418</v>
       </c>
       <c r="T34">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J320-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.50510319477045418</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.31035903787119296</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -19460,8 +19460,8 @@
         <v>-0.51747329276790988</v>
       </c>
       <c r="T35">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J322-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.51747329276790988</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.31795980490773373</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -19525,8 +19525,8 @@
         <v>-0.49861262741004486</v>
       </c>
       <c r="T36">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J324-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.49861262741004486</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30637092957555995</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -19590,8 +19590,8 @@
         <v>-0.39814655143627192</v>
       </c>
       <c r="T37">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J326-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.39814655143627192</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.24463987144577623</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -19655,8 +19655,8 @@
         <v>-0.41550282156918128</v>
       </c>
       <c r="T38">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J328-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.41550282156918128</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.25530437595743405</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -19720,8 +19720,8 @@
         <v>-0.34767890458418427</v>
       </c>
       <c r="T39">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J330-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.34767890458418427</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.21363018771618669</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -19785,8 +19785,8 @@
         <v>-0.32213911172693843</v>
       </c>
       <c r="T40">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J332-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.32213911172693843</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.19793734391580919</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -19850,8 +19850,8 @@
         <v>-0.21000902926962967</v>
       </c>
       <c r="T41">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J334-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.21000902926962967</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.12903937441537253</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -19915,8 +19915,8 @@
         <v>-0.32768908444748274</v>
       </c>
       <c r="T42">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J336-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.32768908444748274</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.20134750685200342</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -19980,8 +19980,8 @@
         <v>-0.42829579002987905</v>
       </c>
       <c r="T43">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J338-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.42829579002987905</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.26316497439372594</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -20045,8 +20045,8 @@
         <v>-0.39429001269633407</v>
       </c>
       <c r="T44">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J340-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.39429001269633407</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.24227023358715208</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -20110,8 +20110,8 @@
         <v>-0.38996289028738995</v>
       </c>
       <c r="T45">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J342-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.38996289028738995</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.23961144710253859</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -20175,8 +20175,8 @@
         <v>-0.32637217025202681</v>
       </c>
       <c r="T46">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J344-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.32637217025202681</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.20053833314870431</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -20240,8 +20240,8 @@
         <v>-0.24053418498700732</v>
       </c>
       <c r="T47">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J346-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.24053418498700732</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.1477954584342413</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -20305,8 +20305,8 @@
         <v>-0.30351346374865606</v>
       </c>
       <c r="T48">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J348-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.30351346374865606</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.18649287425868441</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -20370,8 +20370,8 @@
         <v>-0.30468942184692943</v>
       </c>
       <c r="T49">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J350-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.30468942184692943</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.18721543794019671</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -20435,8 +20435,8 @@
         <v>-0.20380049934385769</v>
       </c>
       <c r="T50">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J352-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.20380049934385769</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.12522456311679664</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -20500,8 +20500,8 @@
         <v>-0.24589631798318745</v>
       </c>
       <c r="T51">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J354-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.24589631798318745</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.15109020385430963</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -20565,8 +20565,8 @@
         <v>-0.13799913160415736</v>
       </c>
       <c r="T52">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J356-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.13799913160415736</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>8.4793123771846918E-2</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -20630,8 +20630,8 @@
         <v>-0.16415046481310813</v>
       </c>
       <c r="T53">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J358-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.16415046481310813</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.100861726579769</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -20695,8 +20695,8 @@
         <v>-0.12774568391781324</v>
       </c>
       <c r="T54">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J360-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.12774568391781324</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>7.8492925729657617E-2</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -20760,8 +20760,8 @@
         <v>-0.16358591690168656</v>
       </c>
       <c r="T55">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J361-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.16358591690168656</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.10051484192642482</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -20825,8 +20825,8 @@
         <v>-0.16259823191154996</v>
       </c>
       <c r="T56">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J364-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.16259823191154996</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>9.9907962052307356E-2</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -20890,8 +20890,8 @@
         <v>-7.2762340324031921E-2</v>
       </c>
       <c r="T57">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J366-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-7.2762340324031921E-2</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>4.4708586621562595E-2</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -20955,8 +20955,8 @@
         <v>-0.11170695878094175</v>
       </c>
       <c r="T58">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J368-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.11170695878094175</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>6.8637982514693163E-2</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -21020,8 +21020,8 @@
         <v>-0.17938963989960402</v>
       </c>
       <c r="T59">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J370-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.17938963989960402</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.11022538883089553</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -21085,8 +21085,8 @@
         <v>-0.15949391911697175</v>
       </c>
       <c r="T60">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J372-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.15949391911697175</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>9.8000527012989558E-2</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -21150,8 +21150,8 @@
         <v>-0.18879649379525312</v>
       </c>
       <c r="T61">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J374-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.18879649379525312</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.11600540003390389</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -21215,8 +21215,8 @@
         <v>-0.17934250813816655</v>
       </c>
       <c r="T62">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J376-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.17934250813816655</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.11019642887125887</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -21280,8 +21280,8 @@
         <v>-0.20220124240879578</v>
       </c>
       <c r="T63">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J378-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.20220124240879578</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.12424190482278166</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -21345,8 +21345,8 @@
         <v>-0.15939980796711184</v>
       </c>
       <c r="T64">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J380-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.15939980796711184</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>9.7942700718826547E-2</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -21410,8 +21410,8 @@
         <v>-0.13042651862508731</v>
       </c>
       <c r="T65">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J382-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.13042651862508731</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>8.0140156016568376E-2</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -21475,8 +21475,8 @@
         <v>-0.14199704754286305</v>
       </c>
       <c r="T66">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J384-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.14199704754286305</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>8.7249630396776273E-2</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -21540,8 +21540,8 @@
         <v>-0.18009499211107005</v>
       </c>
       <c r="T67">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J386-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.18009499211107005</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.11065879023476194</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -21605,8 +21605,8 @@
         <v>-0.27369360045421837</v>
       </c>
       <c r="T68">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J388-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.27369360045421837</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.16817015490681397</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -21670,8 +21670,8 @@
         <v>-0.23578380496033882</v>
       </c>
       <c r="T69">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J390-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.23578380496033882</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.14487660266404689</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -21735,8 +21735,8 @@
         <v>-0.26381635256712505</v>
       </c>
       <c r="T70">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J392-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.26381635256712505</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.1621011116245859</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -21800,8 +21800,8 @@
         <v>-0.26198194633341831</v>
       </c>
       <c r="T71">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J394-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.26198194633341831</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.16097396659827726</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -21865,8 +21865,8 @@
         <v>-0.3169653189494131</v>
       </c>
       <c r="T72">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J396-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.3169653189494131</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.19475832353897823</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -21930,8 +21930,8 @@
         <v>-0.32825354739558255</v>
       </c>
       <c r="T73">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J398-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.32825354739558255</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.2016943392999071</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -21995,8 +21995,8 @@
         <v>-0.35167703435166775</v>
       </c>
       <c r="T74">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J400-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.35167703435166775</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.21608682572752269</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -22060,8 +22060,8 @@
         <v>-0.33902444109698571</v>
       </c>
       <c r="T75">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J402-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.33902444109698571</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.2083124803863034</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -22125,8 +22125,8 @@
         <v>-0.30732343049088229</v>
       </c>
       <c r="T76">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J404-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.30732343049088229</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.1888338961026978</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -22190,8 +22190,8 @@
         <v>-0.29946858636632162</v>
       </c>
       <c r="T77">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J406-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.29946858636632162</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.18400751232534965</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -22255,8 +22255,8 @@
         <v>-0.28691012629606727</v>
       </c>
       <c r="T78">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J408-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.28691012629606727</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.17629100681736287</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -22320,8 +22320,8 @@
         <v>-0.29754010529722263</v>
       </c>
       <c r="T79">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J410-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.29754010529722263</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.18282256331818614</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -22385,8 +22385,8 @@
         <v>-0.30379556090384102</v>
       </c>
       <c r="T80">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J412-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.30379556090384102</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.18666620795084052</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -22450,8 +22450,8 @@
         <v>-0.32543173218990817</v>
       </c>
       <c r="T81">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J414-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.32543173218990817</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.19996048399795952</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -22515,8 +22515,8 @@
         <v>-0.3408589036602549</v>
       </c>
       <c r="T82">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J416-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.3408589036602549</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.20943966002413106</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -22580,8 +22580,8 @@
         <v>-0.33921268300038854</v>
       </c>
       <c r="T83">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J418-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.33921268300038854</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.20842814502004955</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -22645,8 +22645,8 @@
         <v>-0.36381172448071558</v>
       </c>
       <c r="T84">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J420-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.36381172448071558</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.22354294715440828</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -22710,8 +22710,8 @@
         <v>-0.34636176309009536</v>
       </c>
       <c r="T85">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J422-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.34636176309009536</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.21282087434997163</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -22775,8 +22775,8 @@
         <v>-0.36009618715770036</v>
       </c>
       <c r="T86">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J424-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.36009618715770036</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.22125994716413983</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -22840,8 +22840,8 @@
         <v>-0.3877993986178031</v>
       </c>
       <c r="T87">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J426-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.3877993986178031</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.23828209658571903</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -22905,8 +22905,8 @@
         <v>-0.4131977701095631</v>
       </c>
       <c r="T88">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J428-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.4131977701095631</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.25388804448169311</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -22970,8 +22970,8 @@
         <v>-0.42617948959736135</v>
       </c>
       <c r="T89">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J430-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.42617948959736135</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.26186462038115416</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -23035,8 +23035,8 @@
         <v>-0.44145338801456996</v>
       </c>
       <c r="T90">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J432-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.44145338801456996</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.27124961827145949</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -23100,8 +23100,8 @@
         <v>-0.45305527146666086</v>
       </c>
       <c r="T91">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J434-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.45305527146666086</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.27837835834470537</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -23165,8 +23165,8 @@
         <v>-0.49894339794986531</v>
       </c>
       <c r="T92">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J436-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.49894339794986531</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30657417047278185</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -23230,8 +23230,8 @@
         <v>-0.47215524797299147</v>
       </c>
       <c r="T93">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J438-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.47215524797299147</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.29011427764444586</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -23295,8 +23295,8 @@
         <v>-0.43612428977390083</v>
       </c>
       <c r="T94">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J440-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.43612428977390083</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.26797517095095352</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -23360,8 +23360,8 @@
         <v>-0.41650470103494547</v>
       </c>
       <c r="T95">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J442-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.41650470103494547</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.25591997758157103</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -23425,8 +23425,8 @@
         <v>-0.47696617587185514</v>
       </c>
       <c r="T96">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J444-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.47696617587185514</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.29307033686049883</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -23490,8 +23490,8 @@
         <v>-0.4857382342520194</v>
       </c>
       <c r="T97">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J446-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.4857382342520194</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.29846029999517071</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -23555,8 +23555,8 @@
         <v>-0.49351976113159568</v>
       </c>
       <c r="T98">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J448-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.49351976113159568</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30324163422650863</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -23620,8 +23620,8 @@
         <v>-0.50285766175006918</v>
       </c>
       <c r="T99">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J450-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.50285766175006918</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30897927730952912</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -23685,8 +23685,8 @@
         <v>-0.48922803567054829</v>
       </c>
       <c r="T100">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J452-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.48922803567054829</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30060459728299199</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -23750,8 +23750,8 @@
         <v>-0.52568405390312944</v>
       </c>
       <c r="T101">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J454-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.52568405390312944</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.32300488075065142</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -23815,8 +23815,8 @@
         <v>-0.49097313301360967</v>
       </c>
       <c r="T102">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J456-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.49097313301360967</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30167686674790845</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
@@ -23880,8 +23880,8 @@
         <v>-0.49394426008188647</v>
       </c>
       <c r="T103">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J458-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.49394426008188647</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30350246624490329</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -23945,8 +23945,8 @@
         <v>-0.50564031846091295</v>
       </c>
       <c r="T104">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J460-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.50564031846091295</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.31068907179993177</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
@@ -24010,8 +24010,8 @@
         <v>-0.49856623782736065</v>
       </c>
       <c r="T105">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J462-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.49856623782736065</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.30634242564527758</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
@@ -24075,8 +24075,8 @@
         <v>-0.51271476608840816</v>
       </c>
       <c r="T106">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J464-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.51271476608840816</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.31503594345283703</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
@@ -24140,8 +24140,8 @@
         <v>-0.53115514740357528</v>
       </c>
       <c r="T107">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J466-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.53115514740357528</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.32636657660306695</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -24205,8 +24205,8 @@
         <v>-0.52988177794342717</v>
       </c>
       <c r="T108">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J468-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.52988177794342717</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.32558415882270486</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -24270,8 +24270,8 @@
         <v>-0.52497678873407316</v>
       </c>
       <c r="T109">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J470-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.52497678873407316</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.32257030393612962</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
@@ -24335,8 +24335,8 @@
         <v>-0.55751842380601491</v>
       </c>
       <c r="T110">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J471-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.55751842380601491</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.34256540722640499</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
@@ -24400,8 +24400,8 @@
         <v>-0.56643231642503966</v>
       </c>
       <c r="T111">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J473-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.56643231642503966</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.34804251995420094</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
@@ -24465,8 +24465,8 @@
         <v>-0.64075883112330867</v>
       </c>
       <c r="T112">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J475-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.64075883112330867</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.39371220850280958</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
@@ -24530,8 +24530,8 @@
         <v>-0.6474087145846098</v>
       </c>
       <c r="T113">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J477-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.6474087145846098</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.39779820806561755</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
@@ -24595,8 +24595,8 @@
         <v>-0.62576171064913</v>
       </c>
       <c r="T114">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J479-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.62576171064913</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.38449727593181349</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
@@ -24660,8 +24660,8 @@
         <v>-0.57166697667826971</v>
       </c>
       <c r="T115">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J481-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.57166697667826971</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.35125894015624182</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
@@ -24725,8 +24725,8 @@
         <v>-0.65754870939278565</v>
       </c>
       <c r="T116">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J483-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.65754870939278565</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.40402869535072478</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
@@ -24790,8 +24790,8 @@
         <v>-0.67495123688177783</v>
       </c>
       <c r="T117">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J485-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.67495123688177783</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.41472162254645378</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
@@ -24855,8 +24855,8 @@
         <v>-0.65731267927087067</v>
       </c>
       <c r="T118">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J487-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.65731267927087067</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.40388366739939802</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
@@ -24920,8 +24920,8 @@
         <v>-0.6725462427272958</v>
       </c>
       <c r="T119">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J489-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.6725462427272958</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.41324388160242731</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
@@ -24985,8 +24985,8 @@
         <v>-0.65698277112926651</v>
       </c>
       <c r="T120">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J491-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.65698277112926651</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.40368095639999385</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
@@ -25050,8 +25050,8 @@
         <v>-0.71668936271581207</v>
       </c>
       <c r="T121">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J493-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.71668936271581207</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.44036748008707882</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
@@ -25115,8 +25115,8 @@
         <v>-0.72140583085400933</v>
       </c>
       <c r="T122">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J495-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.72140583085400933</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.44326549880617694</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
@@ -25180,8 +25180,8 @@
         <v>-0.70112625094072489</v>
       </c>
       <c r="T123">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J497-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.70112625094072489</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.43080477597669803</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
@@ -25245,8 +25245,8 @@
         <v>-0.71862316494770806</v>
       </c>
       <c r="T124">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J499-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.71862316494770806</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.44155569866565497</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
@@ -25310,8 +25310,8 @@
         <v>-0.66599035832163478</v>
       </c>
       <c r="T125">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J501-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.66599035832163478</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.40921563945784856</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
@@ -25375,8 +25375,8 @@
         <v>-0.69820193824436805</v>
       </c>
       <c r="T126">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J503-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.69820193824436805</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.42900794142036885</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
@@ -25440,8 +25440,8 @@
         <v>-0.72197140441216401</v>
       </c>
       <c r="T127">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J505-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.72197140441216401</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.44361301366486644</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
@@ -25505,8 +25505,8 @@
         <v>-0.73484662602438877</v>
       </c>
       <c r="T128">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J507-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.73484662602438877</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.45152415228628112</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
@@ -25570,8 +25570,8 @@
         <v>-0.74498648290838243</v>
       </c>
       <c r="T129">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J509-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.74498648290838243</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.45775455482431698</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
@@ -25635,8 +25635,8 @@
         <v>-0.77050131817817336</v>
       </c>
       <c r="T130">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J511-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.77050131817817336</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.47343206351513606</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
@@ -25700,8 +25700,8 @@
         <v>-0.77667933276108114</v>
       </c>
       <c r="T131">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J513-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.77667933276108114</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.4772281247591692</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
@@ -25765,8 +25765,8 @@
         <v>-0.81596494956630594</v>
       </c>
       <c r="T132">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J515-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.81596494956630594</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.50136704599364468</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
@@ -25830,8 +25830,8 @@
         <v>-0.79846792766446584</v>
       </c>
       <c r="T133">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J517-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.79846792766446584</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.4906160570090391</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
@@ -25895,8 +25895,8 @@
         <v>-0.83487704002500907</v>
       </c>
       <c r="T134">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J519-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.83487704002500907</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.51298751931407882</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
@@ -25960,8 +25960,8 @@
         <v>-0.78912998277818425</v>
       </c>
       <c r="T135">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J521-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.78912998277818425</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.48487838672580585</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
@@ -26025,8 +26025,8 @@
         <v>-0.86741860283975347</v>
       </c>
       <c r="T136">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J523-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.86741860283975347</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.53298257820615103</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
@@ -26090,8 +26090,8 @@
         <v>-0.82162443848797795</v>
       </c>
       <c r="T137">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J525-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.82162443848797795</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.50484450080834065</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
@@ -26155,8 +26155,8 @@
         <v>-0.82964184656224638</v>
       </c>
       <c r="T138">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J527-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.82964184656224638</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.50977077148315098</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
@@ -26220,8 +26220,8 @@
         <v>-0.81888887861619042</v>
       </c>
       <c r="T139">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J529-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.81888887861619042</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.50316364481962961</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
@@ -26285,8 +26285,8 @@
         <v>-0.87086167067713571</v>
       </c>
       <c r="T140">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J531-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.87086167067713571</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.53509816019493817</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
@@ -26350,8 +26350,8 @@
         <v>-0.82407678596495038</v>
       </c>
       <c r="T141">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J533-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.82407678596495038</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.50635133784948216</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
@@ -26415,8 +26415,8 @@
         <v>-0.82983043172044579</v>
       </c>
       <c r="T142">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J535-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.82983043172044579</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.5098866470287059</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
@@ -26480,8 +26480,8 @@
         <v>-0.71645380573498296</v>
       </c>
       <c r="T143">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J537-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.71645380573498296</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.44022274285577462</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
@@ -26545,8 +26545,8 @@
         <v>-0.76781280322679046</v>
       </c>
       <c r="T144">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J539-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.76781280322679046</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.47178011412686754</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
@@ -26610,8 +26610,8 @@
         <v>-0.78021661547329835</v>
       </c>
       <c r="T145">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J541-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.78021661547329835</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.47940159677559757</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
@@ -26675,8 +26675,8 @@
         <v>-0.76856747129313796</v>
       </c>
       <c r="T146">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J543-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.76856747129313796</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.47224381749958166</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
@@ -26740,8 +26740,8 @@
         <v>-0.77682080266356013</v>
       </c>
       <c r="T147">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J545-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.77682080266356013</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.47731505048697237</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
@@ -26805,8 +26805,8 @@
         <v>-0.94089689240832641</v>
       </c>
       <c r="T148">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J547-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.94089689240832641</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.57813107754456217</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
@@ -26870,8 +26870,8 @@
         <v>-1.0411626673076591</v>
       </c>
       <c r="T149">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J549-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0411626673076591</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.63973906132163638</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
@@ -26935,8 +26935,8 @@
         <v>-1.0587540214878379</v>
       </c>
       <c r="T150">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J551-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0587540214878379</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.6505480124720896</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
@@ -27000,8 +27000,8 @@
         <v>-1.0633759564605121</v>
       </c>
       <c r="T151">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J553-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0633759564605121</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.65338794559085411</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
@@ -27065,8 +27065,8 @@
         <v>-1.0827591646253558</v>
       </c>
       <c r="T152">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J555-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0827591646253558</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.66529789567468178</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
@@ -27130,8 +27130,8 @@
         <v>-1.1394311758785691</v>
       </c>
       <c r="T153">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J557-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1394311758785691</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.70011983120958954</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
@@ -27195,8 +27195,8 @@
         <v>-1.1279972602657422</v>
       </c>
       <c r="T154">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J559-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1279972602657422</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.69309429843641024</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
@@ -27260,8 +27260,8 @@
         <v>-1.1160910812343037</v>
       </c>
       <c r="T155">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J561-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1160910812343037</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.6857785849204846</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
@@ -27325,8 +27325,8 @@
         <v>-1.0882625492013338</v>
       </c>
       <c r="T156">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J563-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0882625492013338</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.66867943267488195</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
@@ -27390,8 +27390,8 @@
         <v>-1.162581962798213</v>
       </c>
       <c r="T157">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J565-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.162581962798213</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.71434475797451902</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
@@ -27455,8 +27455,8 @@
         <v>-1.1701414510455146</v>
       </c>
       <c r="T158">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J567-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1701414510455146</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.71898966128046093</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
@@ -27520,8 +27520,8 @@
         <v>-1.1934341990303237</v>
       </c>
       <c r="T159">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J569-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1934341990303237</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.73330181556653073</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
@@ -27585,8 +27585,8 @@
         <v>-1.1611173588655666</v>
       </c>
       <c r="T160">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J571-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1611173588655666</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.71344483678592896</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
@@ -27650,8 +27650,8 @@
         <v>-1.1919223556966638</v>
       </c>
       <c r="T161">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J573-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1919223556966638</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.73237286827951176</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
@@ -27715,8 +27715,8 @@
         <v>-1.1875282317793863</v>
       </c>
       <c r="T162">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J576-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1875282317793863</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.72967291293301506</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
@@ -27780,8 +27780,8 @@
         <v>-1.2539101014631513</v>
       </c>
       <c r="T163">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J577-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2539101014631513</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.77046103983549286</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
@@ -27845,8 +27845,8 @@
         <v>-1.4322198291313402</v>
       </c>
       <c r="T164">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J580-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.4322198291313402</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.88002288005969287</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
@@ -27910,8 +27910,8 @@
         <v>-1.3566247999240915</v>
       </c>
       <c r="T165">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J581-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3566247999240915</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.83357375683989499</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
@@ -27975,8 +27975,8 @@
         <v>-1.3846416815155915</v>
       </c>
       <c r="T166">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J584-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3846416815155915</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.85078863986759135</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
@@ -28040,8 +28040,8 @@
         <v>-1.4028321827390424</v>
       </c>
       <c r="T167">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J586-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.4028321827390424</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.86196573499697504</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
@@ -28105,8 +28105,8 @@
         <v>-1.3814765207671666</v>
       </c>
       <c r="T168">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J588-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3814765207671666</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.84884381699820677</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
@@ -28170,8 +28170,8 @@
         <v>-1.4111007619622817</v>
       </c>
       <c r="T169">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J590-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.4111007619622817</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.86704633697862066</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
@@ -28235,8 +28235,8 @@
         <v>-1.5089956357078138</v>
       </c>
       <c r="T170">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J592-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.5089956357078138</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.92719752814658118</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
@@ -28300,8 +28300,8 @@
         <v>-1.600277102585862</v>
       </c>
       <c r="T171">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J594-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.600277102585862</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.9832851326778036</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
@@ -28365,8 +28365,8 @@
         <v>-1.3984383444991559</v>
       </c>
       <c r="T172">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J596-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3984383444991559</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.85926595518403492</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
@@ -28430,8 +28430,8 @@
         <v>-1.2691708202358898</v>
       </c>
       <c r="T173">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J598-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2691708202358898</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.77983793953552816</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
@@ -28495,8 +28495,8 @@
         <v>-1.1535105865067012</v>
       </c>
       <c r="T174">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J600-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1535105865067012</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.70877087990930399</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
@@ -28560,8 +28560,8 @@
         <v>-1.2160655269437715</v>
       </c>
       <c r="T175">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J602-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2160655269437715</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.74720756241130604</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
@@ -28625,8 +28625,8 @@
         <v>-1.2746515576510169</v>
       </c>
       <c r="T176">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J604-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2746515576510169</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.78320556106038608</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
@@ -28690,8 +28690,8 @@
         <v>-1.1652278796425268</v>
       </c>
       <c r="T177">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J606-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1652278796425268</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.71597053309253544</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
@@ -28755,8 +28755,8 @@
         <v>-1.168062647421924</v>
       </c>
       <c r="T178">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J608-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.168062647421924</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.71771234706186071</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
@@ -28820,8 +28820,8 @@
         <v>-1.2362870858994717</v>
       </c>
       <c r="T179">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J610-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2362870858994717</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.75963263444950369</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
@@ -28885,8 +28885,8 @@
         <v>-1.1777011298776456</v>
       </c>
       <c r="T180">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J612-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1777011298776456</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.72363468169063994</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
@@ -28950,8 +28950,8 @@
         <v>-1.0735691670643948</v>
       </c>
       <c r="T181">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J614-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0735691670643948</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.65965113115093987</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
@@ -29015,8 +29015,8 @@
         <v>-1.0864201036694565</v>
       </c>
       <c r="T182">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J616-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0864201036694565</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.66754734792759918</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
@@ -29080,8 +29080,8 @@
         <v>-0.9756736857101731</v>
       </c>
       <c r="T183">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J618-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.9756736857101731</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.59949956663976889</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
@@ -29145,8 +29145,8 @@
         <v>-1.1295091683729874</v>
       </c>
       <c r="T184">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J620-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1295091683729874</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.69402328552335102</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
@@ -29210,8 +29210,8 @@
         <v>-1.1094767031487813</v>
       </c>
       <c r="T185">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J622-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1094767031487813</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.68171440152193785</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
@@ -29275,8 +29275,8 @@
         <v>-0.98757972894009838</v>
       </c>
       <c r="T186">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J624-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-0.98757972894009838</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.6068151967128903</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
@@ -29340,8 +29340,8 @@
         <v>-1.0491894973608273</v>
       </c>
       <c r="T187">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J626-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0491894973608273</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.64467112130116</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
@@ -29405,8 +29405,8 @@
         <v>-1.1735432772618786</v>
       </c>
       <c r="T188">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J628-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1735432772618786</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.72107990248749887</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
@@ -29470,8 +29470,8 @@
         <v>-1.1648499183625152</v>
       </c>
       <c r="T189">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J630-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1648499183625152</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.71573829599637084</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
@@ -29535,8 +29535,8 @@
         <v>-1.1504866794443129</v>
       </c>
       <c r="T190">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J632-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1504866794443129</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.70691284991422287</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
@@ -29600,8 +29600,8 @@
         <v>-1.2232471045235513</v>
       </c>
       <c r="T191">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J634-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2232471045235513</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.75162025971976543</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
@@ -29665,8 +29665,8 @@
         <v>-1.1334774733905582</v>
       </c>
       <c r="T192">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J636-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1334774733905582</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.69646159781276817</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
@@ -29730,8 +29730,8 @@
         <v>-1.1527548243921237</v>
       </c>
       <c r="T193">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J638-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1527548243921237</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.70830650430216402</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
@@ -29795,8 +29795,8 @@
         <v>-1.1865831408757703</v>
       </c>
       <c r="T194">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J640-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1865831408757703</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.7290922048587366</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
@@ -29860,8 +29860,8 @@
         <v>-1.166172833333158</v>
       </c>
       <c r="T195">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J642-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.166172833333158</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.71655115685673565</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
@@ -29925,8 +29925,8 @@
         <v>-1.1969776331234387</v>
       </c>
       <c r="T196">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J644-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1969776331234387</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.73547906727922086</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
@@ -29990,8 +29990,8 @@
         <v>-1.1786462250983063</v>
       </c>
       <c r="T197">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J646-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1786462250983063</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.72421539241751276</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
@@ -30055,8 +30055,8 @@
         <v>-1.2689817585422818</v>
       </c>
       <c r="T198">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J648-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2689817585422818</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.77972177118431996</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
@@ -30120,8 +30120,8 @@
         <v>-1.3674441564604247</v>
       </c>
       <c r="T199">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J650-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3674441564604247</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.84022167575976603</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
@@ -30185,8 +30185,8 @@
         <v>-1.2867469258194857</v>
       </c>
       <c r="T200">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J652-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2867469258194857</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.79063752123472208</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
@@ -30250,8 +30250,8 @@
         <v>-1.2436576378181292</v>
       </c>
       <c r="T201">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J654-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2436576378181292</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.76416144643433748</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
@@ -30315,8 +30315,8 @@
         <v>-1.2920382685842409</v>
       </c>
       <c r="T202">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J656-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2920382685842409</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.79388876982415613</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
@@ -30380,8 +30380,8 @@
         <v>-1.2670923088387305</v>
       </c>
       <c r="T203">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J658-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2670923088387305</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.77856080487452128</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
@@ -30445,8 +30445,8 @@
         <v>-1.1960327413584673</v>
       </c>
       <c r="T204">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J660-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1960327413584673</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.73489848156504367</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
@@ -30510,8 +30510,8 @@
         <v>-1.2049150506731006</v>
       </c>
       <c r="T205">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J662-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2049150506731006</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.74035618803276215</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
@@ -30575,8 +30575,8 @@
         <v>-1.2196561597271671</v>
       </c>
       <c r="T206">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J664-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2196561597271671</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.74941381520784567</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
@@ -30640,8 +30640,8 @@
         <v>-1.1996235103804409</v>
       </c>
       <c r="T207">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J666-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1996235103804409</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.7371048180729407</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
@@ -30705,8 +30705,8 @@
         <v>-1.1546445464347748</v>
       </c>
       <c r="T208">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J668-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1546445464347748</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.70946763794984902</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
@@ -30770,8 +30770,8 @@
         <v>-1.1826149717691659</v>
       </c>
       <c r="T209">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J670-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1826149717691659</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.72665397607937676</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
@@ -30835,8 +30835,8 @@
         <v>-1.1742991430979535</v>
       </c>
       <c r="T210">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J672-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1742991430979535</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.72154434182598004</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
@@ -30900,8 +30900,8 @@
         <v>-1.1236504954192048</v>
       </c>
       <c r="T211">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J674-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1236504954192048</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.69042344271902212</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
@@ -30965,8 +30965,8 @@
         <v>-1.0988932274469396</v>
       </c>
       <c r="T212">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J676-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0988932274469396</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.67521141882421498</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
@@ -31030,8 +31030,8 @@
         <v>-1.0620406076062239</v>
       </c>
       <c r="T213">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J678-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0620406076062239</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.65256744477056605</v>
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
@@ -31095,8 +31095,8 @@
         <v>-1.0724352591177311</v>
       </c>
       <c r="T214">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J680-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.0724352591177311</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.65895440505020519</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
@@ -31160,8 +31160,8 @@
         <v>-1.1571013596062949</v>
       </c>
       <c r="T215">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J682-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1571013596062949</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.7109772189226814</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
@@ -31225,8 +31225,8 @@
         <v>-1.22910556765783</v>
       </c>
       <c r="T216">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J684-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.22910556765783</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.75521997360117299</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
@@ -31290,8 +31290,8 @@
         <v>-1.2399559773867832</v>
       </c>
       <c r="T217">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J686-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2399559773867832</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.76188697305564401</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
@@ -31355,8 +31355,8 @@
         <v>-1.2812261807676637</v>
       </c>
       <c r="T218">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J688-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2812261807676637</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.78724531714582424</v>
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
@@ -31420,8 +31420,8 @@
         <v>-1.1875160930150241</v>
       </c>
       <c r="T219">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J690-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1875160930150241</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.72966545430818874</v>
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
@@ -31485,8 +31485,8 @@
         <v>-1.2185634453795926</v>
       </c>
       <c r="T220">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J691-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2185634453795926</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.74874240038193984</v>
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
@@ -31550,8 +31550,8 @@
         <v>-1.264566844615165</v>
       </c>
       <c r="T221">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J693-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.264566844615165</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.77700904148296313</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
@@ -31615,8 +31615,8 @@
         <v>-1.2611591601299526</v>
       </c>
       <c r="T222">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J695-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2611591601299526</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.77491520068142195</v>
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
@@ -31680,8 +31680,8 @@
         <v>-1.2513144874947444</v>
       </c>
       <c r="T223">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J697-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2513144874947444</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.76886617315822725</v>
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
@@ -31745,8 +31745,8 @@
         <v>-1.2632416357737324</v>
       </c>
       <c r="T224">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J699-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2632416357737324</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.77619477116104918</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
@@ -31810,8 +31810,8 @@
         <v>-1.2454460608431124</v>
       </c>
       <c r="T225">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J701-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2454460608431124</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.76526033722554043</v>
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
@@ -31875,8 +31875,8 @@
         <v>-1.2261360738948204</v>
       </c>
       <c r="T226">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J703-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2261360738948204</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.75339537768336073</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
@@ -31940,8 +31940,8 @@
         <v>-1.2460140086013645</v>
       </c>
       <c r="T227">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J705-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2460140086013645</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.76560931090386442</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
@@ -32005,8 +32005,8 @@
         <v>-1.2183739520823367</v>
       </c>
       <c r="T228">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J707-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2183739520823367</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.74862596683325466</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
@@ -32070,8 +32070,8 @@
         <v>-1.1564688814164981</v>
       </c>
       <c r="T229">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J709-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1564688814164981</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.71058859472768077</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
@@ -32135,8 +32135,8 @@
         <v>-1.1875159885832214</v>
       </c>
       <c r="T230">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J711-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.1875159885832214</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.72966539014040255</v>
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
@@ -32200,8 +32200,8 @@
         <v>-1.2068261326592455</v>
       </c>
       <c r="T231">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J713-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2068261326592455</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.74153044622921338</v>
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
@@ -32265,8 +32265,8 @@
         <v>-1.2143986584002726</v>
       </c>
       <c r="T232">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J715-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2143986584002726</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.74618336038135613</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
@@ -32330,8 +32330,8 @@
         <v>-1.290881281050581</v>
       </c>
       <c r="T233">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J717-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.290881281050581</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.79317786254522105</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
@@ -32395,8 +32395,8 @@
         <v>-1.3100017876786922</v>
       </c>
       <c r="T234">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J719-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3100017876786922</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.80492639651243791</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
@@ -32460,8 +32460,8 @@
         <v>-1.338398990336412</v>
       </c>
       <c r="T235">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J721-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.338398990336412</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.82237496659936515</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
@@ -32525,8 +32525,8 @@
         <v>-1.3209822238801139</v>
       </c>
       <c r="T236">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J723-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3209822238801139</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.81167329031584767</v>
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
@@ -32590,8 +32590,8 @@
         <v>-1.315491993052913</v>
       </c>
       <c r="T237">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J725-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.315491993052913</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.80829983559439167</v>
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
@@ -32655,8 +32655,8 @@
         <v>-1.3544905754958401</v>
       </c>
       <c r="T238">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J727-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3544905754958401</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.83226238948563713</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
@@ -32720,8 +32720,8 @@
         <v>-1.357519455659816</v>
       </c>
       <c r="T239">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J729-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.357519455659816</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.834123475187037</v>
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
@@ -32785,8 +32785,8 @@
         <v>-1.2812264687087578</v>
       </c>
       <c r="T240">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J731-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.2812264687087578</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.78724549407030597</v>
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.3">
@@ -32850,8 +32850,8 @@
         <v>-1.3177637504970323</v>
       </c>
       <c r="T241">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J733-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3177637504970323</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.80969570966910231</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
@@ -32915,8 +32915,8 @@
         <v>-1.3209819681991068</v>
       </c>
       <c r="T242">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J735-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3209819681991068</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.81167313321347301</v>
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.3">
@@ -32980,8 +32980,8 @@
         <v>-1.3539224695263796</v>
       </c>
       <c r="T243">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J737-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3539224695263796</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.83191331859494366</v>
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
@@ -33045,8 +33045,8 @@
         <v>-1.4120418394211129</v>
       </c>
       <c r="T244">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J739-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.4120418394211129</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.86762457900462453</v>
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.3">
@@ -33110,8 +33110,8 @@
         <v>-1.4402493105335898</v>
       </c>
       <c r="T245">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J741-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.4402493105335898</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.88495656915215526</v>
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
@@ -33175,8 +33175,8 @@
         <v>-1.4413856236340561</v>
       </c>
       <c r="T246">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J743-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.4413856236340561</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.88565477309192908</v>
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
@@ -33240,8 +33240,8 @@
         <v>-1.3667958088140444</v>
       </c>
       <c r="T247">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J745-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.3667958088140444</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.8398233006280702</v>
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.3">
@@ -33305,8 +33305,8 @@
         <v>-1.4915535353739908</v>
       </c>
       <c r="T248">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J747-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.4915535353739908</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.91648028554327876</v>
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
@@ -33370,8 +33370,8 @@
         <v>-1.5019660688395737</v>
       </c>
       <c r="T249">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J749-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.5019660688395737</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.92287823333224206</v>
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
@@ -33435,8 +33435,8 @@
         <v>-1.486063562952743</v>
       </c>
       <c r="T250">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J751-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.486063562952743</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.91310698959853176</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
@@ -33500,8 +33500,8 @@
         <v>-1.5366099854452513</v>
       </c>
       <c r="T251">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J753-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.5366099854452513</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.94416507676769923</v>
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.3">
@@ -33565,8 +33565,8 @@
         <v>-1.6134712135594953</v>
       </c>
       <c r="T252">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J755-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.6134712135594953</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.99139221184447479</v>
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.3">
@@ -33630,8 +33630,8 @@
         <v>-1.5667110863100973</v>
       </c>
       <c r="T253">
-        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J757-Table13[[#Totals],[Adj_Low]])</f>
-        <v>-1.5667110863100973</v>
+        <f>(Table13[[#This Row],[Adj_Open]]-Table13[[#Totals],[Adj_Low]])/(J$255-Table13[[#Totals],[Adj_Low]])</f>
+        <v>0.96266060164261691</v>
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
